--- a/formshare/tests/resources/forms/form06.xlsx
+++ b/formshare/tests/resources/forms/form06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -105,23 +105,7 @@
     <t xml:space="preserve">GPS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">yesno</t>
-    </r>
+    <t xml:space="preserve">select_one yesno</t>
   </si>
   <si>
     <t xml:space="preserve">yesno</t>
@@ -187,10 +171,16 @@
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
+    <t xml:space="preserve">allow_choice_duplicates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Just a test</t>
   </si>
   <si>
     <t xml:space="preserve">Justtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -200,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,11 +211,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,12 +281,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -490,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -677,17 +666,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="9.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -698,13 +688,19 @@
       <c r="B1" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
